--- a/results/US_ICD_113_SELECTED_CAUSES_ALL/_all_z.xlsx
+++ b/results/US_ICD_113_SELECTED_CAUSES_ALL/_all_z.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Diseases of heart</t>
-  </si>
-  <si>
-    <t>All other diseases (Residual)</t>
   </si>
   <si>
     <t>Malignant neoplasms</t>
@@ -785,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.02161719513749446</v>
+        <v>0.01946505907264898</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -848,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.01946505907264898</v>
+        <v>0.01933660854237437</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -859,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.01933660854237437</v>
+        <v>0.01439390325136308</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -870,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.01439390325136308</v>
+        <v>0.01105629514692325</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -881,7 +878,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0.01105629514692325</v>
+        <v>0.01093432739826608</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -892,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.01093432739826608</v>
+        <v>0.01019920750845675</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -903,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>0.01019920750845675</v>
+        <v>0.008078047617796371</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -914,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0.008078047617796371</v>
+        <v>0.00691086959656881</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -925,7 +922,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>0.00691086959656881</v>
+        <v>0.00669024257698914</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -936,7 +933,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0.00669024257698914</v>
+        <v>0.006049917928432119</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -947,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>0.006049917928432119</v>
+        <v>0.005958792637358603</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -958,7 +955,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>0.005958792637358603</v>
+        <v>0.005466646491079153</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -969,7 +966,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>0.005466646491079153</v>
+        <v>0.004965149818490833</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -980,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>0.004965149818490833</v>
+        <v>0.004369847577104631</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -991,7 +988,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0.004369847577104631</v>
+        <v>0.003961842212403315</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1002,7 +999,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>0.003961842212403315</v>
+        <v>0.003637458813389497</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1013,7 +1010,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>0.003637458813389497</v>
+        <v>0.003425458890048001</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1024,7 +1021,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>0.003425458890048001</v>
+        <v>0.003252064670264544</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1035,7 +1032,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>0.003252064670264544</v>
+        <v>0.003215902051986662</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1046,7 +1043,7 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>0.003215902051986662</v>
+        <v>0.003096096670864015</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1057,7 +1054,7 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>0.003096096670864015</v>
+        <v>0.002689197610066488</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1068,7 +1065,7 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>0.002689197610066488</v>
+        <v>0.002633245468374385</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1079,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>0.002633245468374385</v>
+        <v>0.002479005931172207</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1090,7 +1087,7 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>0.002479005931172207</v>
+        <v>0.002392374766872752</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1101,7 +1098,7 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>0.002392374766872752</v>
+        <v>0.002094495109419478</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1112,7 +1109,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>0.002094495109419478</v>
+        <v>0.002068806418890168</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1123,7 +1120,7 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>0.002068806418890168</v>
+        <v>0.002019430782815571</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1134,7 +1131,7 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>0.002019430782815571</v>
+        <v>0.001999566225396512</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1145,7 +1142,7 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>0.001999566225396512</v>
+        <v>0.001911424925841111</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1156,7 +1153,7 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>0.001911424925841111</v>
+        <v>0.001818347262873962</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1167,7 +1164,7 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>0.001818347262873962</v>
+        <v>0.001726383666923633</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1178,7 +1175,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>0.001726383666923633</v>
+        <v>0.001695338282353625</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1189,7 +1186,7 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>0.001695338282353625</v>
+        <v>0.001669874543998283</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1200,7 +1197,7 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>0.001669874543998283</v>
+        <v>0.001668780352209648</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1211,7 +1208,7 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>0.001668780352209648</v>
+        <v>0.00164671712063333</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1222,7 +1219,7 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>0.00164671712063333</v>
+        <v>0.001637241575128196</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1233,7 +1230,7 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>0.001637241575128196</v>
+        <v>0.001618926578839044</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1244,7 +1241,7 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>0.001618926578839044</v>
+        <v>0.001561218886765014</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1255,7 +1252,7 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>0.001561218886765014</v>
+        <v>0.001484189504280648</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1266,7 +1263,7 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>0.001484189504280648</v>
+        <v>0.001345518250841092</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1277,7 +1274,7 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>0.001345518250841092</v>
+        <v>0.001331965880917116</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1288,7 +1285,7 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>0.001331965880917116</v>
+        <v>0.001230075266116855</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1299,7 +1296,7 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>0.001230075266116855</v>
+        <v>0.001189137977000804</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1310,7 +1307,7 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>0.001189137977000804</v>
+        <v>0.0009484011669202619</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1321,7 +1318,7 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>0.0009484011669202619</v>
+        <v>0.0008890849954397862</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1332,7 +1329,7 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>0.0008890849954397862</v>
+        <v>0.0008594105494511096</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1343,7 +1340,7 @@
         <v>51</v>
       </c>
       <c r="C50">
-        <v>0.0008594105494511096</v>
+        <v>0.0007409515390333721</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1354,7 +1351,7 @@
         <v>52</v>
       </c>
       <c r="C51">
-        <v>0.0007409515390333721</v>
+        <v>0.0007340377642668125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1365,7 +1362,7 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>0.0007340377642668125</v>
+        <v>0.0007247385463533072</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1376,7 +1373,7 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>0.0007247385463533072</v>
+        <v>0.000724717457019134</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1387,7 +1384,7 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>0.000724717457019134</v>
+        <v>0.0007125486026391922</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1398,7 +1395,7 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>0.0007125486026391922</v>
+        <v>0.0007030241050489515</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1409,7 +1406,7 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>0.0007030241050489515</v>
+        <v>0.0006966924732019501</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1420,7 +1417,7 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>0.0006966924732019501</v>
+        <v>0.0006404109283585985</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1431,7 +1428,7 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>0.0006404109283585985</v>
+        <v>0.0006312956056736871</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1442,7 +1439,7 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>0.0006312956056736871</v>
+        <v>0.0006299025687515402</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1453,7 +1450,7 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>0.0006299025687515402</v>
+        <v>0.0006246600658026645</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1464,7 +1461,7 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>0.0006246600658026645</v>
+        <v>0.0005906693666824132</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1475,7 +1472,7 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>0.0005906693666824132</v>
+        <v>0.0005866316224128981</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1486,7 +1483,7 @@
         <v>64</v>
       </c>
       <c r="C63">
-        <v>0.0005866316224128981</v>
+        <v>0.0005769209834179936</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1497,7 +1494,7 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>0.0005769209834179936</v>
+        <v>0.0005484008208565158</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1508,7 +1505,7 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>0.0005484008208565158</v>
+        <v>0.0005083769984758824</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1519,7 +1516,7 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>0.0005083769984758824</v>
+        <v>0.0005029506755583464</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1530,7 +1527,7 @@
         <v>68</v>
       </c>
       <c r="C67">
-        <v>0.0005029506755583464</v>
+        <v>0.0004841415517343962</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1541,7 +1538,7 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>0.0004841415517343962</v>
+        <v>0.000397526793596126</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1552,7 +1549,7 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>0.000397526793596126</v>
+        <v>0.0003794707497104856</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1563,7 +1560,7 @@
         <v>71</v>
       </c>
       <c r="C70">
-        <v>0.0003794707497104856</v>
+        <v>0.0003470252485173642</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1574,7 +1571,7 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>0.0003470252485173642</v>
+        <v>0.0003457081033696034</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1585,7 +1582,7 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>0.0003457081033696034</v>
+        <v>0.000343753409689954</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1596,7 +1593,7 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>0.000343753409689954</v>
+        <v>0.0003323267296035825</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1607,7 +1604,7 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>0.0003323267296035825</v>
+        <v>0.0003198525660086875</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1618,7 +1615,7 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>0.0003198525660086875</v>
+        <v>0.000273306976893624</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1629,7 +1626,7 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>0.000273306976893624</v>
+        <v>0.0002068358273089818</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1640,7 +1637,7 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>0.0002068358273089818</v>
+        <v>0.0002030007399774433</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1651,7 +1648,7 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>0.0002030007399774433</v>
+        <v>0.0001919466570944902</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1662,7 +1659,7 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>0.0001919466570944902</v>
+        <v>0.0001888614372948365</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1673,7 +1670,7 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>0.0001888614372948365</v>
+        <v>0.0001653738286399739</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1684,7 +1681,7 @@
         <v>82</v>
       </c>
       <c r="C81">
-        <v>0.0001653738286399739</v>
+        <v>0.0001541863872996514</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1695,7 +1692,7 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>0.0001541863872996514</v>
+        <v>0.000147447153648178</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1706,7 +1703,7 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>0.000147447153648178</v>
+        <v>0.0001414222283404383</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1717,7 +1714,7 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>0.0001414222283404383</v>
+        <v>0.0001360573747286869</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1728,7 +1725,7 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>0.0001360573747286869</v>
+        <v>0.0001348006527487486</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1739,7 +1736,7 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>0.0001348006527487486</v>
+        <v>0.0001290460435724059</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1750,7 +1747,7 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>0.0001290460435724059</v>
+        <v>0.0001226634004101855</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1761,7 +1758,7 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>0.0001226634004101855</v>
+        <v>0.000118845944945031</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1772,7 +1769,7 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>0.000118845944945031</v>
+        <v>0.0001121905992513207</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1783,7 +1780,7 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>0.0001121905992513207</v>
+        <v>0.0001064616806432887</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1794,7 +1791,7 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>0.0001064616806432887</v>
+        <v>0.0001030984418720471</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1805,7 +1802,7 @@
         <v>93</v>
       </c>
       <c r="C92">
-        <v>0.0001030984418720471</v>
+        <v>0.0001007711114870916</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1816,7 +1813,7 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>0.0001007711114870916</v>
+        <v>0.0001006167530890421</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1827,7 +1824,7 @@
         <v>95</v>
       </c>
       <c r="C94">
-        <v>0.0001006167530890421</v>
+        <v>0.0001002955732401536</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1838,7 +1835,7 @@
         <v>96</v>
       </c>
       <c r="C95">
-        <v>0.0001002955732401536</v>
+        <v>8.541081363019606e-05</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1849,7 +1846,7 @@
         <v>97</v>
       </c>
       <c r="C96">
-        <v>8.541081363019606e-05</v>
+        <v>6.927515599848319e-05</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1860,7 +1857,7 @@
         <v>98</v>
       </c>
       <c r="C97">
-        <v>6.927515599848319e-05</v>
+        <v>4.077306828457224e-05</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1871,7 +1868,7 @@
         <v>99</v>
       </c>
       <c r="C98">
-        <v>4.077306828457224e-05</v>
+        <v>4.001270485344371e-05</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1882,7 +1879,7 @@
         <v>100</v>
       </c>
       <c r="C99">
-        <v>4.001270485344371e-05</v>
+        <v>3.982590627557513e-05</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1893,7 +1890,7 @@
         <v>101</v>
       </c>
       <c r="C100">
-        <v>3.982590627557513e-05</v>
+        <v>3.348520767969627e-05</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1904,7 +1901,7 @@
         <v>102</v>
       </c>
       <c r="C101">
-        <v>3.348520767969627e-05</v>
+        <v>3.159781956538617e-05</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1915,7 +1912,7 @@
         <v>103</v>
       </c>
       <c r="C102">
-        <v>3.159781956538617e-05</v>
+        <v>2.77572292238891e-05</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1926,7 +1923,7 @@
         <v>104</v>
       </c>
       <c r="C103">
-        <v>2.77572292238891e-05</v>
+        <v>2.709567292923133e-05</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1937,7 +1934,7 @@
         <v>105</v>
       </c>
       <c r="C104">
-        <v>2.709567292923133e-05</v>
+        <v>2.187982926307098e-05</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1948,7 +1945,7 @@
         <v>106</v>
       </c>
       <c r="C105">
-        <v>2.187982926307098e-05</v>
+        <v>2.024029080005971e-05</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1959,7 +1956,7 @@
         <v>107</v>
       </c>
       <c r="C106">
-        <v>2.024029080005971e-05</v>
+        <v>1.729660205733552e-05</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1970,7 +1967,7 @@
         <v>108</v>
       </c>
       <c r="C107">
-        <v>1.729660205733552e-05</v>
+        <v>1.704148913800404e-05</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1981,7 +1978,7 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>1.704148913800404e-05</v>
+        <v>1.542200639844311e-05</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1992,7 +1989,7 @@
         <v>110</v>
       </c>
       <c r="C109">
-        <v>1.542200639844311e-05</v>
+        <v>1.433607984798031e-05</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2003,7 +2000,7 @@
         <v>111</v>
       </c>
       <c r="C110">
-        <v>1.433607984798031e-05</v>
+        <v>1.217545313195301e-05</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2014,7 +2011,7 @@
         <v>112</v>
       </c>
       <c r="C111">
-        <v>1.217545313195301e-05</v>
+        <v>1.102063178343114e-05</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2025,7 +2022,7 @@
         <v>113</v>
       </c>
       <c r="C112">
-        <v>1.102063178343114e-05</v>
+        <v>1.080879501390701e-05</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2036,7 +2033,7 @@
         <v>114</v>
       </c>
       <c r="C113">
-        <v>1.080879501390701e-05</v>
+        <v>8.784882711321386e-06</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2047,7 +2044,7 @@
         <v>115</v>
       </c>
       <c r="C114">
-        <v>8.784882711321386e-06</v>
+        <v>7.975751952793559e-06</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2058,7 +2055,7 @@
         <v>116</v>
       </c>
       <c r="C115">
-        <v>7.975751952793559e-06</v>
+        <v>7.705181484678978e-06</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2069,7 +2066,7 @@
         <v>117</v>
       </c>
       <c r="C116">
-        <v>7.705181484678978e-06</v>
+        <v>7.571561564441089e-06</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2080,7 +2077,7 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>7.571561564441089e-06</v>
+        <v>5.845982764717883e-06</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2091,7 +2088,7 @@
         <v>119</v>
       </c>
       <c r="C118">
-        <v>5.845982764717883e-06</v>
+        <v>5.402631965592294e-06</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2102,7 +2099,7 @@
         <v>120</v>
       </c>
       <c r="C119">
-        <v>5.402631965592294e-06</v>
+        <v>4.606283427678251e-06</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2113,7 +2110,7 @@
         <v>121</v>
       </c>
       <c r="C120">
-        <v>4.606283427678251e-06</v>
+        <v>3.926908267048317e-06</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2124,7 +2121,7 @@
         <v>122</v>
       </c>
       <c r="C121">
-        <v>3.926908267048317e-06</v>
+        <v>3.389205339890549e-06</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2135,7 +2132,7 @@
         <v>123</v>
       </c>
       <c r="C122">
-        <v>3.389205339890549e-06</v>
+        <v>2.679900071369225e-06</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2146,7 +2143,7 @@
         <v>124</v>
       </c>
       <c r="C123">
-        <v>2.679900071369225e-06</v>
+        <v>1.976250055870037e-06</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2157,7 +2154,7 @@
         <v>125</v>
       </c>
       <c r="C124">
-        <v>1.976250055870037e-06</v>
+        <v>1.32815896556617e-06</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2168,7 +2165,7 @@
         <v>126</v>
       </c>
       <c r="C125">
-        <v>1.32815896556617e-06</v>
+        <v>7.37060417232934e-07</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2179,7 +2176,7 @@
         <v>127</v>
       </c>
       <c r="C126">
-        <v>7.37060417232934e-07</v>
+        <v>4.105167842537325e-07</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2190,7 +2187,7 @@
         <v>128</v>
       </c>
       <c r="C127">
-        <v>4.105167842537325e-07</v>
+        <v>3.184457999188009e-07</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2201,7 +2198,7 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>3.184457999188009e-07</v>
+        <v>2.575538521645969e-07</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2212,7 +2209,7 @@
         <v>130</v>
       </c>
       <c r="C129">
-        <v>2.575538521645969e-07</v>
+        <v>1.832227380164776e-07</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2223,7 +2220,7 @@
         <v>131</v>
       </c>
       <c r="C130">
-        <v>1.832227380164776e-07</v>
+        <v>1.310097720097547e-07</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2234,7 +2231,7 @@
         <v>132</v>
       </c>
       <c r="C131">
-        <v>1.310097720097547e-07</v>
+        <v>9.475201281501987e-08</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2245,7 +2242,7 @@
         <v>133</v>
       </c>
       <c r="C132">
-        <v>9.475201281501987e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2278,17 +2275,6 @@
         <v>136</v>
       </c>
       <c r="C135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136">
         <v>0</v>
       </c>
     </row>
